--- a/resources/template/accounting/_arrival.xlsx
+++ b/resources/template/accounting/_arrival.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Всего</t>
+  </si>
+  <si>
+    <t>{staff}</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,6 +179,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -236,25 +248,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -540,7 +552,7 @@
   <dimension ref="B2:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ5" sqref="BJ5"/>
+      <selection activeCell="E22" sqref="E22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -560,28 +572,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
@@ -590,14 +602,14 @@
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
@@ -678,35 +690,35 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -722,10 +734,12 @@
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="E22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/resources/template/accounting/_arrival.xlsx
+++ b/resources/template/accounting/_arrival.xlsx
@@ -24,9 +24,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Товары</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>Приходная накладная № {number} от {date}</t>
   </si>
   <si>
-    <t>Поставщик</t>
-  </si>
-  <si>
-    <t>Покупатель</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>{staff}</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>Поставщик:</t>
+  </si>
+  <si>
+    <t>Покупатель:</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,6 +248,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -266,8 +269,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,15 +558,15 @@
   <dimension ref="B2:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:H22"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
@@ -572,48 +578,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -621,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -644,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -664,7 +675,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="7"/>
@@ -675,50 +686,50 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="9" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -731,25 +742,27 @@
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="E22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="E22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="999" orientation="portrait" r:id="rId1"/>

--- a/resources/template/accounting/_arrival.xlsx
+++ b/resources/template/accounting/_arrival.xlsx
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,6 +248,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -271,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +564,7 @@
   <dimension ref="B2:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -578,49 +584,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
@@ -701,35 +712,35 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
@@ -745,12 +756,12 @@
         <v>12</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -760,9 +771,9 @@
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="999" orientation="portrait" r:id="rId1"/>
